--- a/AEO.xlsx
+++ b/AEO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72FFCF3-21E2-47BA-80F0-D48255BDC34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C14E79-FDD6-40A7-A0ED-F4BF6CF70CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{3AF04D28-8998-4CB9-8994-9DFD7A9E4F0F}"/>
+    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" xr2:uid="{3AF04D28-8998-4CB9-8994-9DFD7A9E4F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -716,10 +716,10 @@
   <dimension ref="A1:AZ284"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29:J31"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AEO.xlsx
+++ b/AEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C14E79-FDD6-40A7-A0ED-F4BF6CF70CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82688C77-40A3-47E3-A5D7-1A71A7C951BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" xr2:uid="{3AF04D28-8998-4CB9-8994-9DFD7A9E4F0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{3AF04D28-8998-4CB9-8994-9DFD7A9E4F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,14 +199,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -222,12 +220,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -249,25 +260,26 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -606,33 +618,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A46CF45-F336-4CFE-854F-50895CD58EE0}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>14.35</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="3">
@@ -642,11 +655,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="3">
@@ -654,11 +667,11 @@
         <v>2756.6605860499999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="3">
@@ -668,8 +681,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="3">
@@ -679,8 +692,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="3">
@@ -688,21 +701,21 @@
         <v>2596.4655860499997</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -715,25 +728,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74C3300-CB92-4F6E-827D-008A8029E743}">
   <dimension ref="A1:AZ284"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -759,81 +773,81 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8">
         <v>1199</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8">
         <v>1186</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
         <v>7333</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8">
         <v>7282</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -843,8 +857,8 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="3"/>
@@ -901,8 +915,8 @@
       <c r="AX6" s="3"/>
       <c r="AY6" s="3"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="3"/>
@@ -960,23 +974,23 @@
       <c r="AY7" s="3"/>
       <c r="AZ7" s="3"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
         <v>1301.0550000000001</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9">
         <v>1289.0940000000001</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1019,8 +1033,8 @@
       <c r="AY8" s="3"/>
       <c r="AZ8" s="3"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="3"/>
@@ -1078,8 +1092,8 @@
       <c r="AY9" s="3"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="3">
@@ -1157,8 +1171,8 @@
       <c r="AY10" s="3"/>
       <c r="AZ10" s="3"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="3"/>
@@ -1216,8 +1230,8 @@
       <c r="AY11" s="3"/>
       <c r="AZ11" s="3"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="3"/>
@@ -1275,8 +1289,8 @@
       <c r="AY12" s="3"/>
       <c r="AZ12" s="3"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="3"/>
@@ -1334,8 +1348,8 @@
       <c r="AY13" s="3"/>
       <c r="AZ13" s="3"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="3">
@@ -1413,8 +1427,8 @@
       <c r="AY14" s="3"/>
       <c r="AZ14" s="3"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="3"/>
@@ -1472,8 +1486,8 @@
       <c r="AY15" s="3"/>
       <c r="AZ15" s="3"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="3"/>
@@ -1531,8 +1545,8 @@
       <c r="AY16" s="3"/>
       <c r="AZ16" s="3"/>
     </row>
-    <row r="17" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3">
@@ -1610,8 +1624,8 @@
       <c r="AY17" s="3"/>
       <c r="AZ17" s="3"/>
     </row>
-    <row r="18" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="3"/>
@@ -1669,8 +1683,8 @@
       <c r="AY18" s="3"/>
       <c r="AZ18" s="3"/>
     </row>
-    <row r="19" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="3">
@@ -1748,7 +1762,7 @@
       <c r="AY19" s="3"/>
       <c r="AZ19" s="3"/>
     </row>
-    <row r="20" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:52" x14ac:dyDescent="0.2">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1800,39 +1814,39 @@
       <c r="AY20" s="3"/>
       <c r="AZ20" s="3"/>
     </row>
-    <row r="21" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="2" t="e">
+      <c r="C21" s="10" t="e">
         <f t="shared" ref="C21:H21" si="8">+C19/C22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D21" s="2" t="e">
+      <c r="D21" s="10" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="10">
         <f t="shared" si="8"/>
         <v>0.4950266966310542</v>
       </c>
-      <c r="F21" s="2" t="e">
+      <c r="F21" s="10" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="2" t="e">
+      <c r="G21" s="10" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="2" t="e">
+      <c r="H21" s="10" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="10">
         <f>+I19/I22</f>
         <v>0.4176291602949852</v>
       </c>
-      <c r="J21" s="2" t="e">
+      <c r="J21" s="10" t="e">
         <f t="shared" ref="J21" si="9">+J19/J22</f>
         <v>#DIV/0!</v>
       </c>
@@ -1879,8 +1893,8 @@
       <c r="AY21" s="3"/>
       <c r="AZ21" s="3"/>
     </row>
-    <row r="22" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="3"/>
@@ -1938,7 +1952,7 @@
       <c r="AY22" s="3"/>
       <c r="AZ22" s="3"/>
     </row>
-    <row r="23" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:52" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1990,27 +2004,27 @@
       <c r="AY23" s="3"/>
       <c r="AZ23" s="3"/>
     </row>
-    <row r="24" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="8" t="e">
+      <c r="G24" s="11" t="e">
         <f t="shared" ref="G24:H24" si="10">+G3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="8" t="e">
+      <c r="H24" s="11" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="11">
         <f>+I3/E3-1</f>
         <v>-1.0842368640533784E-2</v>
       </c>
-      <c r="J24" s="8" t="e">
+      <c r="J24" s="11" t="e">
         <f>+J3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -2057,27 +2071,27 @@
       <c r="AY24" s="3"/>
       <c r="AZ24" s="3"/>
     </row>
-    <row r="25" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="8" t="e">
+      <c r="G25" s="11" t="e">
         <f t="shared" ref="G25:H25" si="11">+G4/C4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="8" t="e">
+      <c r="H25" s="11" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="11">
         <f>+I4/E4-1</f>
         <v>-6.9548615846174444E-3</v>
       </c>
-      <c r="J25" s="8" t="e">
+      <c r="J25" s="11" t="e">
         <f>+J4/F4-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -2124,27 +2138,27 @@
       <c r="AY25" s="3"/>
       <c r="AZ25" s="3"/>
     </row>
-    <row r="26" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="8" t="e">
+      <c r="G26" s="11" t="e">
         <f t="shared" ref="G26:H28" si="12">+G6/C6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="8" t="e">
+      <c r="H26" s="11" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="11">
         <f>+I6/E6-1</f>
         <v>-2.9699852340507982E-2</v>
       </c>
-      <c r="J26" s="8" t="e">
+      <c r="J26" s="11" t="e">
         <f>+J6/F6-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -2191,27 +2205,27 @@
       <c r="AY26" s="3"/>
       <c r="AZ26" s="3"/>
     </row>
-    <row r="27" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="8" t="e">
+      <c r="G27" s="11" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="8" t="e">
+      <c r="H27" s="11" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="11">
         <f t="shared" ref="I27:J28" si="13">+I7/E7-1</f>
         <v>4.4270078006930724E-2</v>
       </c>
-      <c r="J27" s="8" t="e">
+      <c r="J27" s="11" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2258,27 +2272,27 @@
       <c r="AY27" s="3"/>
       <c r="AZ27" s="3"/>
     </row>
-    <row r="28" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="8" t="e">
+      <c r="G28" s="11" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="8" t="e">
+      <c r="H28" s="11" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="11">
         <f t="shared" si="13"/>
         <v>-9.1933085073268028E-3</v>
       </c>
-      <c r="J28" s="8" t="e">
+      <c r="J28" s="11" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2325,39 +2339,39 @@
       <c r="AY28" s="3"/>
       <c r="AZ28" s="3"/>
     </row>
-    <row r="29" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="8" t="e">
+      <c r="C29" s="11" t="e">
         <f t="shared" ref="C29:H29" si="14">+C10/C8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" s="8" t="e">
+      <c r="D29" s="11" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="11">
         <f t="shared" si="14"/>
         <v>0.41796618897740678</v>
       </c>
-      <c r="F29" s="8" t="e">
+      <c r="F29" s="11" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="8" t="e">
+      <c r="G29" s="11" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="8" t="e">
+      <c r="H29" s="11" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="11">
         <f>+I10/I8</f>
         <v>0.40852257476956683</v>
       </c>
-      <c r="J29" s="8" t="e">
+      <c r="J29" s="11" t="e">
         <f>+J10/J8</f>
         <v>#DIV/0!</v>
       </c>
@@ -2404,39 +2418,39 @@
       <c r="AY29" s="3"/>
       <c r="AZ29" s="3"/>
     </row>
-    <row r="30" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="8" t="e">
+      <c r="C30" s="11" t="e">
         <f t="shared" ref="C30:H30" si="15">+C14/C8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D30" s="8" t="e">
+      <c r="D30" s="11" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="11">
         <f t="shared" si="15"/>
         <v>9.6353344016970835E-2</v>
       </c>
-      <c r="F30" s="8" t="e">
+      <c r="F30" s="11" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="8" t="e">
+      <c r="G30" s="11" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="8" t="e">
+      <c r="H30" s="11" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="11">
         <f>+I14/I8</f>
         <v>8.2297334406955622E-2</v>
       </c>
-      <c r="J30" s="8" t="e">
+      <c r="J30" s="11" t="e">
         <f>+J14/J8</f>
         <v>#DIV/0!</v>
       </c>
@@ -2483,39 +2497,39 @@
       <c r="AY30" s="3"/>
       <c r="AZ30" s="3"/>
     </row>
-    <row r="31" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="8" t="e">
+      <c r="C31" s="11" t="e">
         <f t="shared" ref="C31:H31" si="16">+C18/C17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="8" t="e">
+      <c r="D31" s="11" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="11">
         <f t="shared" si="16"/>
         <v>0.26862104435166695</v>
       </c>
-      <c r="F31" s="8" t="e">
+      <c r="F31" s="11" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="8" t="e">
+      <c r="G31" s="11" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="8" t="e">
+      <c r="H31" s="11" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="11">
         <f>+I18/I17</f>
         <v>0.26065785826480631</v>
       </c>
-      <c r="J31" s="8" t="e">
+      <c r="J31" s="11" t="e">
         <f>+J18/J17</f>
         <v>#DIV/0!</v>
       </c>
@@ -2562,7 +2576,7 @@
       <c r="AY31" s="3"/>
       <c r="AZ31" s="3"/>
     </row>
-    <row r="32" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:52" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2614,7 +2628,7 @@
       <c r="AY32" s="3"/>
       <c r="AZ32" s="3"/>
     </row>
-    <row r="33" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2666,7 +2680,7 @@
       <c r="AY33" s="3"/>
       <c r="AZ33" s="3"/>
     </row>
-    <row r="34" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2718,7 +2732,7 @@
       <c r="AY34" s="3"/>
       <c r="AZ34" s="3"/>
     </row>
-    <row r="35" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2770,7 +2784,7 @@
       <c r="AY35" s="3"/>
       <c r="AZ35" s="3"/>
     </row>
-    <row r="36" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2822,7 +2836,7 @@
       <c r="AY36" s="3"/>
       <c r="AZ36" s="3"/>
     </row>
-    <row r="37" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2874,7 +2888,7 @@
       <c r="AY37" s="3"/>
       <c r="AZ37" s="3"/>
     </row>
-    <row r="38" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2926,7 +2940,7 @@
       <c r="AY38" s="3"/>
       <c r="AZ38" s="3"/>
     </row>
-    <row r="39" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2978,7 +2992,7 @@
       <c r="AY39" s="3"/>
       <c r="AZ39" s="3"/>
     </row>
-    <row r="40" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -3030,7 +3044,7 @@
       <c r="AY40" s="3"/>
       <c r="AZ40" s="3"/>
     </row>
-    <row r="41" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3082,7 +3096,7 @@
       <c r="AY41" s="3"/>
       <c r="AZ41" s="3"/>
     </row>
-    <row r="42" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3134,7 +3148,7 @@
       <c r="AY42" s="3"/>
       <c r="AZ42" s="3"/>
     </row>
-    <row r="43" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3186,7 +3200,7 @@
       <c r="AY43" s="3"/>
       <c r="AZ43" s="3"/>
     </row>
-    <row r="44" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3238,7 +3252,7 @@
       <c r="AY44" s="3"/>
       <c r="AZ44" s="3"/>
     </row>
-    <row r="45" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3290,7 +3304,7 @@
       <c r="AY45" s="3"/>
       <c r="AZ45" s="3"/>
     </row>
-    <row r="46" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3342,7 +3356,7 @@
       <c r="AY46" s="3"/>
       <c r="AZ46" s="3"/>
     </row>
-    <row r="47" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3394,7 +3408,7 @@
       <c r="AY47" s="3"/>
       <c r="AZ47" s="3"/>
     </row>
-    <row r="48" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -3446,7 +3460,7 @@
       <c r="AY48" s="3"/>
       <c r="AZ48" s="3"/>
     </row>
-    <row r="49" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3498,7 +3512,7 @@
       <c r="AY49" s="3"/>
       <c r="AZ49" s="3"/>
     </row>
-    <row r="50" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3550,7 +3564,7 @@
       <c r="AY50" s="3"/>
       <c r="AZ50" s="3"/>
     </row>
-    <row r="51" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -3602,7 +3616,7 @@
       <c r="AY51" s="3"/>
       <c r="AZ51" s="3"/>
     </row>
-    <row r="52" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -3654,7 +3668,7 @@
       <c r="AY52" s="3"/>
       <c r="AZ52" s="3"/>
     </row>
-    <row r="53" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -3706,7 +3720,7 @@
       <c r="AY53" s="3"/>
       <c r="AZ53" s="3"/>
     </row>
-    <row r="54" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -3758,7 +3772,7 @@
       <c r="AY54" s="3"/>
       <c r="AZ54" s="3"/>
     </row>
-    <row r="55" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -3810,7 +3824,7 @@
       <c r="AY55" s="3"/>
       <c r="AZ55" s="3"/>
     </row>
-    <row r="56" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -3862,7 +3876,7 @@
       <c r="AY56" s="3"/>
       <c r="AZ56" s="3"/>
     </row>
-    <row r="57" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -3914,7 +3928,7 @@
       <c r="AY57" s="3"/>
       <c r="AZ57" s="3"/>
     </row>
-    <row r="58" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3966,7 +3980,7 @@
       <c r="AY58" s="3"/>
       <c r="AZ58" s="3"/>
     </row>
-    <row r="59" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4018,7 +4032,7 @@
       <c r="AY59" s="3"/>
       <c r="AZ59" s="3"/>
     </row>
-    <row r="60" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4070,7 +4084,7 @@
       <c r="AY60" s="3"/>
       <c r="AZ60" s="3"/>
     </row>
-    <row r="61" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4122,7 +4136,7 @@
       <c r="AY61" s="3"/>
       <c r="AZ61" s="3"/>
     </row>
-    <row r="62" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4174,7 +4188,7 @@
       <c r="AY62" s="3"/>
       <c r="AZ62" s="3"/>
     </row>
-    <row r="63" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -4226,7 +4240,7 @@
       <c r="AY63" s="3"/>
       <c r="AZ63" s="3"/>
     </row>
-    <row r="64" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4278,7 +4292,7 @@
       <c r="AY64" s="3"/>
       <c r="AZ64" s="3"/>
     </row>
-    <row r="65" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -4330,7 +4344,7 @@
       <c r="AY65" s="3"/>
       <c r="AZ65" s="3"/>
     </row>
-    <row r="66" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4382,7 +4396,7 @@
       <c r="AY66" s="3"/>
       <c r="AZ66" s="3"/>
     </row>
-    <row r="67" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4434,7 +4448,7 @@
       <c r="AY67" s="3"/>
       <c r="AZ67" s="3"/>
     </row>
-    <row r="68" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4486,7 +4500,7 @@
       <c r="AY68" s="3"/>
       <c r="AZ68" s="3"/>
     </row>
-    <row r="69" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -4538,7 +4552,7 @@
       <c r="AY69" s="3"/>
       <c r="AZ69" s="3"/>
     </row>
-    <row r="70" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -4590,7 +4604,7 @@
       <c r="AY70" s="3"/>
       <c r="AZ70" s="3"/>
     </row>
-    <row r="71" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -4642,7 +4656,7 @@
       <c r="AY71" s="3"/>
       <c r="AZ71" s="3"/>
     </row>
-    <row r="72" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -4694,7 +4708,7 @@
       <c r="AY72" s="3"/>
       <c r="AZ72" s="3"/>
     </row>
-    <row r="73" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -4746,7 +4760,7 @@
       <c r="AY73" s="3"/>
       <c r="AZ73" s="3"/>
     </row>
-    <row r="74" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -4798,7 +4812,7 @@
       <c r="AY74" s="3"/>
       <c r="AZ74" s="3"/>
     </row>
-    <row r="75" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -4850,7 +4864,7 @@
       <c r="AY75" s="3"/>
       <c r="AZ75" s="3"/>
     </row>
-    <row r="76" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -4902,7 +4916,7 @@
       <c r="AY76" s="3"/>
       <c r="AZ76" s="3"/>
     </row>
-    <row r="77" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -4954,7 +4968,7 @@
       <c r="AY77" s="3"/>
       <c r="AZ77" s="3"/>
     </row>
-    <row r="78" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5006,7 +5020,7 @@
       <c r="AY78" s="3"/>
       <c r="AZ78" s="3"/>
     </row>
-    <row r="79" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5058,7 +5072,7 @@
       <c r="AY79" s="3"/>
       <c r="AZ79" s="3"/>
     </row>
-    <row r="80" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5110,7 +5124,7 @@
       <c r="AY80" s="3"/>
       <c r="AZ80" s="3"/>
     </row>
-    <row r="81" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5162,7 +5176,7 @@
       <c r="AY81" s="3"/>
       <c r="AZ81" s="3"/>
     </row>
-    <row r="82" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5214,7 +5228,7 @@
       <c r="AY82" s="3"/>
       <c r="AZ82" s="3"/>
     </row>
-    <row r="83" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5266,7 +5280,7 @@
       <c r="AY83" s="3"/>
       <c r="AZ83" s="3"/>
     </row>
-    <row r="84" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -5318,7 +5332,7 @@
       <c r="AY84" s="3"/>
       <c r="AZ84" s="3"/>
     </row>
-    <row r="85" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -5370,7 +5384,7 @@
       <c r="AY85" s="3"/>
       <c r="AZ85" s="3"/>
     </row>
-    <row r="86" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -5422,7 +5436,7 @@
       <c r="AY86" s="3"/>
       <c r="AZ86" s="3"/>
     </row>
-    <row r="87" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -5474,7 +5488,7 @@
       <c r="AY87" s="3"/>
       <c r="AZ87" s="3"/>
     </row>
-    <row r="88" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -5526,7 +5540,7 @@
       <c r="AY88" s="3"/>
       <c r="AZ88" s="3"/>
     </row>
-    <row r="89" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -5578,7 +5592,7 @@
       <c r="AY89" s="3"/>
       <c r="AZ89" s="3"/>
     </row>
-    <row r="90" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -5630,7 +5644,7 @@
       <c r="AY90" s="3"/>
       <c r="AZ90" s="3"/>
     </row>
-    <row r="91" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -5682,7 +5696,7 @@
       <c r="AY91" s="3"/>
       <c r="AZ91" s="3"/>
     </row>
-    <row r="92" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -5734,7 +5748,7 @@
       <c r="AY92" s="3"/>
       <c r="AZ92" s="3"/>
     </row>
-    <row r="93" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -5786,7 +5800,7 @@
       <c r="AY93" s="3"/>
       <c r="AZ93" s="3"/>
     </row>
-    <row r="94" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -5838,7 +5852,7 @@
       <c r="AY94" s="3"/>
       <c r="AZ94" s="3"/>
     </row>
-    <row r="95" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -5890,7 +5904,7 @@
       <c r="AY95" s="3"/>
       <c r="AZ95" s="3"/>
     </row>
-    <row r="96" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -5942,7 +5956,7 @@
       <c r="AY96" s="3"/>
       <c r="AZ96" s="3"/>
     </row>
-    <row r="97" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -5994,7 +6008,7 @@
       <c r="AY97" s="3"/>
       <c r="AZ97" s="3"/>
     </row>
-    <row r="98" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -6046,7 +6060,7 @@
       <c r="AY98" s="3"/>
       <c r="AZ98" s="3"/>
     </row>
-    <row r="99" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -6098,7 +6112,7 @@
       <c r="AY99" s="3"/>
       <c r="AZ99" s="3"/>
     </row>
-    <row r="100" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -6150,7 +6164,7 @@
       <c r="AY100" s="3"/>
       <c r="AZ100" s="3"/>
     </row>
-    <row r="101" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -6202,7 +6216,7 @@
       <c r="AY101" s="3"/>
       <c r="AZ101" s="3"/>
     </row>
-    <row r="102" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -6254,7 +6268,7 @@
       <c r="AY102" s="3"/>
       <c r="AZ102" s="3"/>
     </row>
-    <row r="103" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -6306,7 +6320,7 @@
       <c r="AY103" s="3"/>
       <c r="AZ103" s="3"/>
     </row>
-    <row r="104" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -6358,7 +6372,7 @@
       <c r="AY104" s="3"/>
       <c r="AZ104" s="3"/>
     </row>
-    <row r="105" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -6410,7 +6424,7 @@
       <c r="AY105" s="3"/>
       <c r="AZ105" s="3"/>
     </row>
-    <row r="106" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -6462,7 +6476,7 @@
       <c r="AY106" s="3"/>
       <c r="AZ106" s="3"/>
     </row>
-    <row r="107" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -6514,7 +6528,7 @@
       <c r="AY107" s="3"/>
       <c r="AZ107" s="3"/>
     </row>
-    <row r="108" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -6566,7 +6580,7 @@
       <c r="AY108" s="3"/>
       <c r="AZ108" s="3"/>
     </row>
-    <row r="109" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -6618,7 +6632,7 @@
       <c r="AY109" s="3"/>
       <c r="AZ109" s="3"/>
     </row>
-    <row r="110" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -6670,7 +6684,7 @@
       <c r="AY110" s="3"/>
       <c r="AZ110" s="3"/>
     </row>
-    <row r="111" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -6722,7 +6736,7 @@
       <c r="AY111" s="3"/>
       <c r="AZ111" s="3"/>
     </row>
-    <row r="112" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -6774,7 +6788,7 @@
       <c r="AY112" s="3"/>
       <c r="AZ112" s="3"/>
     </row>
-    <row r="113" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -6826,7 +6840,7 @@
       <c r="AY113" s="3"/>
       <c r="AZ113" s="3"/>
     </row>
-    <row r="114" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -6878,7 +6892,7 @@
       <c r="AY114" s="3"/>
       <c r="AZ114" s="3"/>
     </row>
-    <row r="115" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -6930,7 +6944,7 @@
       <c r="AY115" s="3"/>
       <c r="AZ115" s="3"/>
     </row>
-    <row r="116" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -6982,7 +6996,7 @@
       <c r="AY116" s="3"/>
       <c r="AZ116" s="3"/>
     </row>
-    <row r="117" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -7034,7 +7048,7 @@
       <c r="AY117" s="3"/>
       <c r="AZ117" s="3"/>
     </row>
-    <row r="118" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -7086,7 +7100,7 @@
       <c r="AY118" s="3"/>
       <c r="AZ118" s="3"/>
     </row>
-    <row r="119" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -7138,7 +7152,7 @@
       <c r="AY119" s="3"/>
       <c r="AZ119" s="3"/>
     </row>
-    <row r="120" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -7190,7 +7204,7 @@
       <c r="AY120" s="3"/>
       <c r="AZ120" s="3"/>
     </row>
-    <row r="121" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -7242,7 +7256,7 @@
       <c r="AY121" s="3"/>
       <c r="AZ121" s="3"/>
     </row>
-    <row r="122" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -7294,7 +7308,7 @@
       <c r="AY122" s="3"/>
       <c r="AZ122" s="3"/>
     </row>
-    <row r="123" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -7346,7 +7360,7 @@
       <c r="AY123" s="3"/>
       <c r="AZ123" s="3"/>
     </row>
-    <row r="124" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -7398,7 +7412,7 @@
       <c r="AY124" s="3"/>
       <c r="AZ124" s="3"/>
     </row>
-    <row r="125" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -7450,7 +7464,7 @@
       <c r="AY125" s="3"/>
       <c r="AZ125" s="3"/>
     </row>
-    <row r="126" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -7502,7 +7516,7 @@
       <c r="AY126" s="3"/>
       <c r="AZ126" s="3"/>
     </row>
-    <row r="127" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -7554,7 +7568,7 @@
       <c r="AY127" s="3"/>
       <c r="AZ127" s="3"/>
     </row>
-    <row r="128" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -7606,7 +7620,7 @@
       <c r="AY128" s="3"/>
       <c r="AZ128" s="3"/>
     </row>
-    <row r="129" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -7658,7 +7672,7 @@
       <c r="AY129" s="3"/>
       <c r="AZ129" s="3"/>
     </row>
-    <row r="130" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -7710,7 +7724,7 @@
       <c r="AY130" s="3"/>
       <c r="AZ130" s="3"/>
     </row>
-    <row r="131" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -7762,7 +7776,7 @@
       <c r="AY131" s="3"/>
       <c r="AZ131" s="3"/>
     </row>
-    <row r="132" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -7814,7 +7828,7 @@
       <c r="AY132" s="3"/>
       <c r="AZ132" s="3"/>
     </row>
-    <row r="133" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -7866,7 +7880,7 @@
       <c r="AY133" s="3"/>
       <c r="AZ133" s="3"/>
     </row>
-    <row r="134" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -7918,7 +7932,7 @@
       <c r="AY134" s="3"/>
       <c r="AZ134" s="3"/>
     </row>
-    <row r="135" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -7970,7 +7984,7 @@
       <c r="AY135" s="3"/>
       <c r="AZ135" s="3"/>
     </row>
-    <row r="136" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -8022,7 +8036,7 @@
       <c r="AY136" s="3"/>
       <c r="AZ136" s="3"/>
     </row>
-    <row r="137" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -8074,7 +8088,7 @@
       <c r="AY137" s="3"/>
       <c r="AZ137" s="3"/>
     </row>
-    <row r="138" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -8126,7 +8140,7 @@
       <c r="AY138" s="3"/>
       <c r="AZ138" s="3"/>
     </row>
-    <row r="139" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -8178,7 +8192,7 @@
       <c r="AY139" s="3"/>
       <c r="AZ139" s="3"/>
     </row>
-    <row r="140" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -8230,7 +8244,7 @@
       <c r="AY140" s="3"/>
       <c r="AZ140" s="3"/>
     </row>
-    <row r="141" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -8282,7 +8296,7 @@
       <c r="AY141" s="3"/>
       <c r="AZ141" s="3"/>
     </row>
-    <row r="142" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -8334,7 +8348,7 @@
       <c r="AY142" s="3"/>
       <c r="AZ142" s="3"/>
     </row>
-    <row r="143" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -8386,7 +8400,7 @@
       <c r="AY143" s="3"/>
       <c r="AZ143" s="3"/>
     </row>
-    <row r="144" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -8438,7 +8452,7 @@
       <c r="AY144" s="3"/>
       <c r="AZ144" s="3"/>
     </row>
-    <row r="145" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -8490,7 +8504,7 @@
       <c r="AY145" s="3"/>
       <c r="AZ145" s="3"/>
     </row>
-    <row r="146" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -8542,7 +8556,7 @@
       <c r="AY146" s="3"/>
       <c r="AZ146" s="3"/>
     </row>
-    <row r="147" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -8594,7 +8608,7 @@
       <c r="AY147" s="3"/>
       <c r="AZ147" s="3"/>
     </row>
-    <row r="148" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -8646,7 +8660,7 @@
       <c r="AY148" s="3"/>
       <c r="AZ148" s="3"/>
     </row>
-    <row r="149" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -8698,7 +8712,7 @@
       <c r="AY149" s="3"/>
       <c r="AZ149" s="3"/>
     </row>
-    <row r="150" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -8750,7 +8764,7 @@
       <c r="AY150" s="3"/>
       <c r="AZ150" s="3"/>
     </row>
-    <row r="151" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -8802,7 +8816,7 @@
       <c r="AY151" s="3"/>
       <c r="AZ151" s="3"/>
     </row>
-    <row r="152" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -8854,7 +8868,7 @@
       <c r="AY152" s="3"/>
       <c r="AZ152" s="3"/>
     </row>
-    <row r="153" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -8906,7 +8920,7 @@
       <c r="AY153" s="3"/>
       <c r="AZ153" s="3"/>
     </row>
-    <row r="154" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -8958,7 +8972,7 @@
       <c r="AY154" s="3"/>
       <c r="AZ154" s="3"/>
     </row>
-    <row r="155" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -9010,7 +9024,7 @@
       <c r="AY155" s="3"/>
       <c r="AZ155" s="3"/>
     </row>
-    <row r="156" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -9062,7 +9076,7 @@
       <c r="AY156" s="3"/>
       <c r="AZ156" s="3"/>
     </row>
-    <row r="157" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -9114,7 +9128,7 @@
       <c r="AY157" s="3"/>
       <c r="AZ157" s="3"/>
     </row>
-    <row r="158" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -9166,7 +9180,7 @@
       <c r="AY158" s="3"/>
       <c r="AZ158" s="3"/>
     </row>
-    <row r="159" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -9218,7 +9232,7 @@
       <c r="AY159" s="3"/>
       <c r="AZ159" s="3"/>
     </row>
-    <row r="160" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -9270,7 +9284,7 @@
       <c r="AY160" s="3"/>
       <c r="AZ160" s="3"/>
     </row>
-    <row r="161" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -9322,7 +9336,7 @@
       <c r="AY161" s="3"/>
       <c r="AZ161" s="3"/>
     </row>
-    <row r="162" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -9374,7 +9388,7 @@
       <c r="AY162" s="3"/>
       <c r="AZ162" s="3"/>
     </row>
-    <row r="163" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -9426,7 +9440,7 @@
       <c r="AY163" s="3"/>
       <c r="AZ163" s="3"/>
     </row>
-    <row r="164" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -9478,7 +9492,7 @@
       <c r="AY164" s="3"/>
       <c r="AZ164" s="3"/>
     </row>
-    <row r="165" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -9530,7 +9544,7 @@
       <c r="AY165" s="3"/>
       <c r="AZ165" s="3"/>
     </row>
-    <row r="166" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -9582,7 +9596,7 @@
       <c r="AY166" s="3"/>
       <c r="AZ166" s="3"/>
     </row>
-    <row r="167" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -9634,7 +9648,7 @@
       <c r="AY167" s="3"/>
       <c r="AZ167" s="3"/>
     </row>
-    <row r="168" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -9686,7 +9700,7 @@
       <c r="AY168" s="3"/>
       <c r="AZ168" s="3"/>
     </row>
-    <row r="169" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -9738,7 +9752,7 @@
       <c r="AY169" s="3"/>
       <c r="AZ169" s="3"/>
     </row>
-    <row r="170" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -9790,7 +9804,7 @@
       <c r="AY170" s="3"/>
       <c r="AZ170" s="3"/>
     </row>
-    <row r="171" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -9842,7 +9856,7 @@
       <c r="AY171" s="3"/>
       <c r="AZ171" s="3"/>
     </row>
-    <row r="172" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -9894,7 +9908,7 @@
       <c r="AY172" s="3"/>
       <c r="AZ172" s="3"/>
     </row>
-    <row r="173" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -9946,7 +9960,7 @@
       <c r="AY173" s="3"/>
       <c r="AZ173" s="3"/>
     </row>
-    <row r="174" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -9998,7 +10012,7 @@
       <c r="AY174" s="3"/>
       <c r="AZ174" s="3"/>
     </row>
-    <row r="175" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -10050,7 +10064,7 @@
       <c r="AY175" s="3"/>
       <c r="AZ175" s="3"/>
     </row>
-    <row r="176" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -10102,7 +10116,7 @@
       <c r="AY176" s="3"/>
       <c r="AZ176" s="3"/>
     </row>
-    <row r="177" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -10154,7 +10168,7 @@
       <c r="AY177" s="3"/>
       <c r="AZ177" s="3"/>
     </row>
-    <row r="178" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -10206,7 +10220,7 @@
       <c r="AY178" s="3"/>
       <c r="AZ178" s="3"/>
     </row>
-    <row r="179" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -10258,7 +10272,7 @@
       <c r="AY179" s="3"/>
       <c r="AZ179" s="3"/>
     </row>
-    <row r="180" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -10310,7 +10324,7 @@
       <c r="AY180" s="3"/>
       <c r="AZ180" s="3"/>
     </row>
-    <row r="181" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -10362,7 +10376,7 @@
       <c r="AY181" s="3"/>
       <c r="AZ181" s="3"/>
     </row>
-    <row r="182" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -10414,7 +10428,7 @@
       <c r="AY182" s="3"/>
       <c r="AZ182" s="3"/>
     </row>
-    <row r="183" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -10466,7 +10480,7 @@
       <c r="AY183" s="3"/>
       <c r="AZ183" s="3"/>
     </row>
-    <row r="184" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -10518,7 +10532,7 @@
       <c r="AY184" s="3"/>
       <c r="AZ184" s="3"/>
     </row>
-    <row r="185" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -10570,7 +10584,7 @@
       <c r="AY185" s="3"/>
       <c r="AZ185" s="3"/>
     </row>
-    <row r="186" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -10622,7 +10636,7 @@
       <c r="AY186" s="3"/>
       <c r="AZ186" s="3"/>
     </row>
-    <row r="187" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -10674,7 +10688,7 @@
       <c r="AY187" s="3"/>
       <c r="AZ187" s="3"/>
     </row>
-    <row r="188" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -10726,7 +10740,7 @@
       <c r="AY188" s="3"/>
       <c r="AZ188" s="3"/>
     </row>
-    <row r="189" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -10778,7 +10792,7 @@
       <c r="AY189" s="3"/>
       <c r="AZ189" s="3"/>
     </row>
-    <row r="190" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -10830,7 +10844,7 @@
       <c r="AY190" s="3"/>
       <c r="AZ190" s="3"/>
     </row>
-    <row r="191" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -10882,7 +10896,7 @@
       <c r="AY191" s="3"/>
       <c r="AZ191" s="3"/>
     </row>
-    <row r="192" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -10934,7 +10948,7 @@
       <c r="AY192" s="3"/>
       <c r="AZ192" s="3"/>
     </row>
-    <row r="193" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -10986,7 +11000,7 @@
       <c r="AY193" s="3"/>
       <c r="AZ193" s="3"/>
     </row>
-    <row r="194" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -11038,7 +11052,7 @@
       <c r="AY194" s="3"/>
       <c r="AZ194" s="3"/>
     </row>
-    <row r="195" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -11090,7 +11104,7 @@
       <c r="AY195" s="3"/>
       <c r="AZ195" s="3"/>
     </row>
-    <row r="196" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -11142,7 +11156,7 @@
       <c r="AY196" s="3"/>
       <c r="AZ196" s="3"/>
     </row>
-    <row r="197" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -11194,7 +11208,7 @@
       <c r="AY197" s="3"/>
       <c r="AZ197" s="3"/>
     </row>
-    <row r="198" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -11246,7 +11260,7 @@
       <c r="AY198" s="3"/>
       <c r="AZ198" s="3"/>
     </row>
-    <row r="199" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -11298,7 +11312,7 @@
       <c r="AY199" s="3"/>
       <c r="AZ199" s="3"/>
     </row>
-    <row r="200" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -11350,7 +11364,7 @@
       <c r="AY200" s="3"/>
       <c r="AZ200" s="3"/>
     </row>
-    <row r="201" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -11402,7 +11416,7 @@
       <c r="AY201" s="3"/>
       <c r="AZ201" s="3"/>
     </row>
-    <row r="202" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -11454,7 +11468,7 @@
       <c r="AY202" s="3"/>
       <c r="AZ202" s="3"/>
     </row>
-    <row r="203" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -11506,7 +11520,7 @@
       <c r="AY203" s="3"/>
       <c r="AZ203" s="3"/>
     </row>
-    <row r="204" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -11558,7 +11572,7 @@
       <c r="AY204" s="3"/>
       <c r="AZ204" s="3"/>
     </row>
-    <row r="205" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -11610,7 +11624,7 @@
       <c r="AY205" s="3"/>
       <c r="AZ205" s="3"/>
     </row>
-    <row r="206" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -11662,7 +11676,7 @@
       <c r="AY206" s="3"/>
       <c r="AZ206" s="3"/>
     </row>
-    <row r="207" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -11714,7 +11728,7 @@
       <c r="AY207" s="3"/>
       <c r="AZ207" s="3"/>
     </row>
-    <row r="208" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -11766,7 +11780,7 @@
       <c r="AY208" s="3"/>
       <c r="AZ208" s="3"/>
     </row>
-    <row r="209" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -11818,7 +11832,7 @@
       <c r="AY209" s="3"/>
       <c r="AZ209" s="3"/>
     </row>
-    <row r="210" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -11870,7 +11884,7 @@
       <c r="AY210" s="3"/>
       <c r="AZ210" s="3"/>
     </row>
-    <row r="211" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -11922,7 +11936,7 @@
       <c r="AY211" s="3"/>
       <c r="AZ211" s="3"/>
     </row>
-    <row r="212" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -11974,7 +11988,7 @@
       <c r="AY212" s="3"/>
       <c r="AZ212" s="3"/>
     </row>
-    <row r="213" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -12026,7 +12040,7 @@
       <c r="AY213" s="3"/>
       <c r="AZ213" s="3"/>
     </row>
-    <row r="214" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -12078,7 +12092,7 @@
       <c r="AY214" s="3"/>
       <c r="AZ214" s="3"/>
     </row>
-    <row r="215" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -12130,7 +12144,7 @@
       <c r="AY215" s="3"/>
       <c r="AZ215" s="3"/>
     </row>
-    <row r="216" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -12182,7 +12196,7 @@
       <c r="AY216" s="3"/>
       <c r="AZ216" s="3"/>
     </row>
-    <row r="217" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -12234,7 +12248,7 @@
       <c r="AY217" s="3"/>
       <c r="AZ217" s="3"/>
     </row>
-    <row r="218" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -12286,7 +12300,7 @@
       <c r="AY218" s="3"/>
       <c r="AZ218" s="3"/>
     </row>
-    <row r="219" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -12338,7 +12352,7 @@
       <c r="AY219" s="3"/>
       <c r="AZ219" s="3"/>
     </row>
-    <row r="220" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -12390,7 +12404,7 @@
       <c r="AY220" s="3"/>
       <c r="AZ220" s="3"/>
     </row>
-    <row r="221" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -12442,7 +12456,7 @@
       <c r="AY221" s="3"/>
       <c r="AZ221" s="3"/>
     </row>
-    <row r="222" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -12494,7 +12508,7 @@
       <c r="AY222" s="3"/>
       <c r="AZ222" s="3"/>
     </row>
-    <row r="223" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -12546,7 +12560,7 @@
       <c r="AY223" s="3"/>
       <c r="AZ223" s="3"/>
     </row>
-    <row r="224" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -12598,7 +12612,7 @@
       <c r="AY224" s="3"/>
       <c r="AZ224" s="3"/>
     </row>
-    <row r="225" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -12650,7 +12664,7 @@
       <c r="AY225" s="3"/>
       <c r="AZ225" s="3"/>
     </row>
-    <row r="226" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -12702,7 +12716,7 @@
       <c r="AY226" s="3"/>
       <c r="AZ226" s="3"/>
     </row>
-    <row r="227" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -12754,7 +12768,7 @@
       <c r="AY227" s="3"/>
       <c r="AZ227" s="3"/>
     </row>
-    <row r="228" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -12806,7 +12820,7 @@
       <c r="AY228" s="3"/>
       <c r="AZ228" s="3"/>
     </row>
-    <row r="229" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -12858,7 +12872,7 @@
       <c r="AY229" s="3"/>
       <c r="AZ229" s="3"/>
     </row>
-    <row r="230" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -12910,7 +12924,7 @@
       <c r="AY230" s="3"/>
       <c r="AZ230" s="3"/>
     </row>
-    <row r="231" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -12962,7 +12976,7 @@
       <c r="AY231" s="3"/>
       <c r="AZ231" s="3"/>
     </row>
-    <row r="232" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -13014,7 +13028,7 @@
       <c r="AY232" s="3"/>
       <c r="AZ232" s="3"/>
     </row>
-    <row r="233" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -13066,7 +13080,7 @@
       <c r="AY233" s="3"/>
       <c r="AZ233" s="3"/>
     </row>
-    <row r="234" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -13118,7 +13132,7 @@
       <c r="AY234" s="3"/>
       <c r="AZ234" s="3"/>
     </row>
-    <row r="235" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -13170,7 +13184,7 @@
       <c r="AY235" s="3"/>
       <c r="AZ235" s="3"/>
     </row>
-    <row r="236" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -13222,7 +13236,7 @@
       <c r="AY236" s="3"/>
       <c r="AZ236" s="3"/>
     </row>
-    <row r="237" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -13274,7 +13288,7 @@
       <c r="AY237" s="3"/>
       <c r="AZ237" s="3"/>
     </row>
-    <row r="238" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -13326,7 +13340,7 @@
       <c r="AY238" s="3"/>
       <c r="AZ238" s="3"/>
     </row>
-    <row r="239" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -13378,7 +13392,7 @@
       <c r="AY239" s="3"/>
       <c r="AZ239" s="3"/>
     </row>
-    <row r="240" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -13430,7 +13444,7 @@
       <c r="AY240" s="3"/>
       <c r="AZ240" s="3"/>
     </row>
-    <row r="241" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -13482,7 +13496,7 @@
       <c r="AY241" s="3"/>
       <c r="AZ241" s="3"/>
     </row>
-    <row r="242" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -13534,7 +13548,7 @@
       <c r="AY242" s="3"/>
       <c r="AZ242" s="3"/>
     </row>
-    <row r="243" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -13586,7 +13600,7 @@
       <c r="AY243" s="3"/>
       <c r="AZ243" s="3"/>
     </row>
-    <row r="244" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -13638,7 +13652,7 @@
       <c r="AY244" s="3"/>
       <c r="AZ244" s="3"/>
     </row>
-    <row r="245" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -13690,7 +13704,7 @@
       <c r="AY245" s="3"/>
       <c r="AZ245" s="3"/>
     </row>
-    <row r="246" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -13742,7 +13756,7 @@
       <c r="AY246" s="3"/>
       <c r="AZ246" s="3"/>
     </row>
-    <row r="247" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -13794,7 +13808,7 @@
       <c r="AY247" s="3"/>
       <c r="AZ247" s="3"/>
     </row>
-    <row r="248" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -13846,7 +13860,7 @@
       <c r="AY248" s="3"/>
       <c r="AZ248" s="3"/>
     </row>
-    <row r="249" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -13898,7 +13912,7 @@
       <c r="AY249" s="3"/>
       <c r="AZ249" s="3"/>
     </row>
-    <row r="250" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -13950,7 +13964,7 @@
       <c r="AY250" s="3"/>
       <c r="AZ250" s="3"/>
     </row>
-    <row r="251" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -14002,7 +14016,7 @@
       <c r="AY251" s="3"/>
       <c r="AZ251" s="3"/>
     </row>
-    <row r="252" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -14054,7 +14068,7 @@
       <c r="AY252" s="3"/>
       <c r="AZ252" s="3"/>
     </row>
-    <row r="253" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -14106,7 +14120,7 @@
       <c r="AY253" s="3"/>
       <c r="AZ253" s="3"/>
     </row>
-    <row r="254" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -14158,7 +14172,7 @@
       <c r="AY254" s="3"/>
       <c r="AZ254" s="3"/>
     </row>
-    <row r="255" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -14210,7 +14224,7 @@
       <c r="AY255" s="3"/>
       <c r="AZ255" s="3"/>
     </row>
-    <row r="256" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -14262,7 +14276,7 @@
       <c r="AY256" s="3"/>
       <c r="AZ256" s="3"/>
     </row>
-    <row r="257" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -14314,7 +14328,7 @@
       <c r="AY257" s="3"/>
       <c r="AZ257" s="3"/>
     </row>
-    <row r="258" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -14366,7 +14380,7 @@
       <c r="AY258" s="3"/>
       <c r="AZ258" s="3"/>
     </row>
-    <row r="259" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -14418,7 +14432,7 @@
       <c r="AY259" s="3"/>
       <c r="AZ259" s="3"/>
     </row>
-    <row r="260" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -14470,7 +14484,7 @@
       <c r="AY260" s="3"/>
       <c r="AZ260" s="3"/>
     </row>
-    <row r="261" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -14522,7 +14536,7 @@
       <c r="AY261" s="3"/>
       <c r="AZ261" s="3"/>
     </row>
-    <row r="262" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -14574,7 +14588,7 @@
       <c r="AY262" s="3"/>
       <c r="AZ262" s="3"/>
     </row>
-    <row r="263" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -14626,7 +14640,7 @@
       <c r="AY263" s="3"/>
       <c r="AZ263" s="3"/>
     </row>
-    <row r="264" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -14678,7 +14692,7 @@
       <c r="AY264" s="3"/>
       <c r="AZ264" s="3"/>
     </row>
-    <row r="265" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -14730,7 +14744,7 @@
       <c r="AY265" s="3"/>
       <c r="AZ265" s="3"/>
     </row>
-    <row r="266" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -14782,7 +14796,7 @@
       <c r="AY266" s="3"/>
       <c r="AZ266" s="3"/>
     </row>
-    <row r="267" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -14834,7 +14848,7 @@
       <c r="AY267" s="3"/>
       <c r="AZ267" s="3"/>
     </row>
-    <row r="268" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -14886,7 +14900,7 @@
       <c r="AY268" s="3"/>
       <c r="AZ268" s="3"/>
     </row>
-    <row r="269" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -14938,7 +14952,7 @@
       <c r="AY269" s="3"/>
       <c r="AZ269" s="3"/>
     </row>
-    <row r="270" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -14990,7 +15004,7 @@
       <c r="AY270" s="3"/>
       <c r="AZ270" s="3"/>
     </row>
-    <row r="271" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -15042,7 +15056,7 @@
       <c r="AY271" s="3"/>
       <c r="AZ271" s="3"/>
     </row>
-    <row r="272" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -15094,7 +15108,7 @@
       <c r="AY272" s="3"/>
       <c r="AZ272" s="3"/>
     </row>
-    <row r="273" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -15146,7 +15160,7 @@
       <c r="AY273" s="3"/>
       <c r="AZ273" s="3"/>
     </row>
-    <row r="274" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -15198,7 +15212,7 @@
       <c r="AY274" s="3"/>
       <c r="AZ274" s="3"/>
     </row>
-    <row r="275" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -15250,7 +15264,7 @@
       <c r="AY275" s="3"/>
       <c r="AZ275" s="3"/>
     </row>
-    <row r="276" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -15302,7 +15316,7 @@
       <c r="AY276" s="3"/>
       <c r="AZ276" s="3"/>
     </row>
-    <row r="277" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -15354,7 +15368,7 @@
       <c r="AY277" s="3"/>
       <c r="AZ277" s="3"/>
     </row>
-    <row r="278" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -15406,7 +15420,7 @@
       <c r="AY278" s="3"/>
       <c r="AZ278" s="3"/>
     </row>
-    <row r="279" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -15458,7 +15472,7 @@
       <c r="AY279" s="3"/>
       <c r="AZ279" s="3"/>
     </row>
-    <row r="280" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -15510,7 +15524,7 @@
       <c r="AY280" s="3"/>
       <c r="AZ280" s="3"/>
     </row>
-    <row r="281" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -15562,7 +15576,7 @@
       <c r="AY281" s="3"/>
       <c r="AZ281" s="3"/>
     </row>
-    <row r="282" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -15614,7 +15628,7 @@
       <c r="AY282" s="3"/>
       <c r="AZ282" s="3"/>
     </row>
-    <row r="283" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -15666,7 +15680,7 @@
       <c r="AY283" s="3"/>
       <c r="AZ283" s="3"/>
     </row>
-    <row r="284" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:52" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
